--- a/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nwuac-my.sharepoint.com/personal/38630834_mynwu_ac_za/Documents/CMPG 323/Projects/Project 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\CMPG-323-Project4---38630834\CMPG 323 Project 4 38630834\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{B1917270-4FC2-47D5-A448-545394BA88B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376B4C9B-9DF7-4ED5-B00A-2FC2DEE96618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
   <si>
     <t>CustomerId</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Test Result</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -730,15 +733,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -982,6 +988,11 @@
       </c>
       <c r="E14">
         <v>5815761997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\CMPG-323-Project4---38630834\CMPG 323 Project 4 38630834\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376B4C9B-9DF7-4ED5-B00A-2FC2DEE96618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0258F41C-7FFC-4AA3-9EFC-7BBE0DC13BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>CustomerId</t>
   </si>
@@ -56,93 +56,96 @@
     <t>CellPhone</t>
   </si>
   <si>
+    <t>Test Result</t>
+  </si>
+  <si>
     <t>Mr</t>
   </si>
   <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>DeMoss</t>
+  </si>
+  <si>
+    <t>Corey-Lock</t>
+  </si>
+  <si>
+    <t>Jacobus</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Ludwig</t>
+  </si>
+  <si>
+    <t>Gov</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Klamczynski</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Cousins</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Oakman</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Mick</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Sperren</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t>Mrs</t>
   </si>
   <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>Gov</t>
-  </si>
-  <si>
-    <t>Dr</t>
+    <t>Sung</t>
   </si>
   <si>
     <t>Pak</t>
   </si>
   <si>
-    <t>Ludwig</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>DeMoss</t>
-  </si>
-  <si>
-    <t>Corey-Lock</t>
-  </si>
-  <si>
-    <t>Jacobus</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>Bern</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Klamczynski</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Cousins</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Oakman</t>
-  </si>
-  <si>
-    <t>Mick</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Gardner</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Sperren</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Sung</t>
-  </si>
-  <si>
     <t>Thais</t>
   </si>
   <si>
@@ -221,153 +224,153 @@
     <t>UnitsInStock</t>
   </si>
   <si>
+    <t>Plantronics Cordless Phone Headset with In-line Vo</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>IBM Multi-Purpose Copy Paper</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Advantus Push Pins</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Pressboard Covers with Storage Hooks</t>
+  </si>
+  <si>
+    <t>Binders</t>
+  </si>
+  <si>
+    <t>Xerox 189</t>
+  </si>
+  <si>
+    <t>SimpliFile Personal File</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Xerox 210</t>
+  </si>
+  <si>
+    <t>TOPS Important Message Pads</t>
+  </si>
+  <si>
+    <t>Bionaire Personal Warm Mist Humidifier/Vaporizer</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Global Troy Executive Leather Low-Back Tilter</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>SanDisk Cruzer 64 GB USB Flash Drive</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Fellowes Bankers Box Recycled Super Stor/Drawer</t>
+  </si>
+  <si>
+    <t>DAX Wood Document Frame</t>
+  </si>
+  <si>
     <t>Furnishings</t>
   </si>
   <si>
-    <t>Binders</t>
-  </si>
-  <si>
-    <t>Chairs</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Appliances</t>
-  </si>
-  <si>
-    <t>Phones</t>
-  </si>
-  <si>
-    <t>Fasteners</t>
+    <t>Poly String Tie Envelopes</t>
   </si>
   <si>
     <t>Envelopes</t>
   </si>
   <si>
-    <t>Accessories</t>
+    <t>Wilson Jones Ledger-Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech Wireless Performance Mouse MX for PC and </t>
+  </si>
+  <si>
+    <t>Ampad Poly Cover Wirebound Steno Book</t>
+  </si>
+  <si>
+    <t>Memorex Mini Travel Drive 16 GB USB 2.0 Flash Driv</t>
+  </si>
+  <si>
+    <t>Dana Halogen Swing-Arm Architect Lamp</t>
+  </si>
+  <si>
+    <t>Logitech LS21 Speaker System - PC Multimedia - 2.1</t>
+  </si>
+  <si>
+    <t>Wilson Jones Easy Flow II Sheet Lifters</t>
+  </si>
+  <si>
+    <t>Panasonic KX T7731-B Digital phone</t>
+  </si>
+  <si>
+    <t>Avery 519</t>
   </si>
   <si>
     <t>Labels</t>
   </si>
   <si>
+    <t>Adtran 1202752G1</t>
+  </si>
+  <si>
+    <t>Situations Contoured Folding Chairs</t>
+  </si>
+  <si>
+    <t>Adams Phone Message Book</t>
+  </si>
+  <si>
+    <t>Magna Visual Magnetic Picture Hangers</t>
+  </si>
+  <si>
+    <t>Xerox 1973</t>
+  </si>
+  <si>
+    <t>Nortel Meridian M3904 Professional Digital phone</t>
+  </si>
+  <si>
+    <t>Global Leather Task Chair</t>
+  </si>
+  <si>
+    <t>Peel &amp; Seel Envelopes</t>
+  </si>
+  <si>
+    <t>DataProducts Ampli Magnifier Task Lamp</t>
+  </si>
+  <si>
+    <t>Hon 2111 Invitation Series Corner Table</t>
+  </si>
+  <si>
     <t>Tables</t>
   </si>
   <si>
-    <t>Plantronics Cordless Phone Headset with In-line Vo</t>
-  </si>
-  <si>
-    <t>IBM Multi-Purpose Copy Paper</t>
-  </si>
-  <si>
-    <t>Advantus Push Pins</t>
+    <t>Novimex Fabric Task Chair</t>
+  </si>
+  <si>
+    <t>Hon Valutask Swivel Chairs</t>
+  </si>
+  <si>
+    <t>Bush Andora Bookcase</t>
   </si>
   <si>
     <t>Bookcases</t>
   </si>
   <si>
-    <t>Pressboard Covers with Storage Hooks</t>
-  </si>
-  <si>
-    <t>Xerox 189</t>
-  </si>
-  <si>
-    <t>SimpliFile Personal File</t>
-  </si>
-  <si>
-    <t>Adams Phone Message Book</t>
-  </si>
-  <si>
-    <t>Xerox 210</t>
-  </si>
-  <si>
-    <t>TOPS Important Message Pads</t>
-  </si>
-  <si>
-    <t>Bionaire Personal Warm Mist Humidifier/Vaporizer</t>
-  </si>
-  <si>
-    <t>Global Troy Executive Leather Low-Back Tilter</t>
-  </si>
-  <si>
-    <t>SanDisk Cruzer 64 GB USB Flash Drive</t>
-  </si>
-  <si>
-    <t>Fellowes Bankers Box Recycled Super Stor/Drawer</t>
-  </si>
-  <si>
-    <t>DAX Wood Document Frame</t>
-  </si>
-  <si>
-    <t>Poly String Tie Envelopes</t>
-  </si>
-  <si>
-    <t>Wilson Jones Ledger-Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logitech Wireless Performance Mouse MX for PC and </t>
-  </si>
-  <si>
-    <t>Ampad Poly Cover Wirebound Steno Book</t>
-  </si>
-  <si>
-    <t>Memorex Mini Travel Drive 16 GB USB 2.0 Flash Driv</t>
-  </si>
-  <si>
-    <t>Dana Halogen Swing-Arm Architect Lamp</t>
-  </si>
-  <si>
-    <t>Logitech LS21 Speaker System - PC Multimedia - 2.1</t>
-  </si>
-  <si>
-    <t>Wilson Jones Easy Flow II Sheet Lifters</t>
-  </si>
-  <si>
-    <t>Panasonic KX T7731-B Digital phone</t>
-  </si>
-  <si>
-    <t>Avery 519</t>
-  </si>
-  <si>
-    <t>Adtran 1202752G1</t>
-  </si>
-  <si>
-    <t>Situations Contoured Folding Chairs</t>
-  </si>
-  <si>
-    <t>Magna Visual Magnetic Picture Hangers</t>
-  </si>
-  <si>
-    <t>Xerox 1973</t>
-  </si>
-  <si>
-    <t>Nortel Meridian M3904 Professional Digital phone</t>
-  </si>
-  <si>
-    <t>Global Leather Task Chair</t>
-  </si>
-  <si>
-    <t>Peel &amp; Seel Envelopes</t>
-  </si>
-  <si>
-    <t>DataProducts Ampli Magnifier Task Lamp</t>
-  </si>
-  <si>
-    <t>Hon 2111 Invitation Series Corner Table</t>
-  </si>
-  <si>
-    <t>Novimex Fabric Task Chair</t>
-  </si>
-  <si>
-    <t>Hon Valutask Swivel Chairs</t>
-  </si>
-  <si>
-    <t>Bush Andora Bookcase</t>
-  </si>
-  <si>
     <t>Hon 4070 Series Pagoda Armless Upholstered Stackin</t>
   </si>
   <si>
@@ -375,12 +378,6 @@
   </si>
   <si>
     <t>Cisco 8x8 Inc. 6753i IP Business Phone System</t>
-  </si>
-  <si>
-    <t>Test Result</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
 </sst>
 </file>
@@ -733,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,13 +771,13 @@
         <v>12280</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>5723177115</v>
@@ -791,13 +788,13 @@
         <v>12640</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>9041993848</v>
@@ -808,13 +805,13 @@
         <v>13735</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>3738283528</v>
@@ -825,13 +822,13 @@
         <v>15325</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>6447102299</v>
@@ -842,13 +839,13 @@
         <v>16240</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>1878764468</v>
@@ -859,13 +856,13 @@
         <v>17425</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>9666552669</v>
@@ -876,13 +873,13 @@
         <v>17950</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2384982848</v>
@@ -893,13 +890,13 @@
         <v>18085</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>8945409882</v>
@@ -910,13 +907,13 @@
         <v>18820</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1320602595</v>
@@ -927,13 +924,13 @@
         <v>19420</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>7968612324</v>
@@ -944,13 +941,13 @@
         <v>20320</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>1578247192</v>
@@ -961,13 +958,13 @@
         <v>20860</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>7425817353</v>
@@ -978,21 +975,16 @@
         <v>21085</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>5815761997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1019,22 +1011,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,19 +1733,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,7 +1759,7 @@
         <v>18820</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,7 +1773,7 @@
         <v>13735</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1795,7 +1787,7 @@
         <v>19420</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,7 +1801,7 @@
         <v>20860</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,7 +1815,7 @@
         <v>20860</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,7 +1829,7 @@
         <v>15325</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,7 +1843,7 @@
         <v>18085</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,7 +1857,7 @@
         <v>17950</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1879,7 +1871,7 @@
         <v>12280</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,7 +1885,7 @@
         <v>16240</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,7 +1899,7 @@
         <v>17425</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,7 +1913,7 @@
         <v>20320</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,7 +1927,7 @@
         <v>21085</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,7 +1941,7 @@
         <v>12640</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1976,19 +1968,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1996,10 +1988,10 @@
         <v>10000215</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>950</v>
@@ -2010,10 +2002,10 @@
         <v>10000241</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>61</v>
@@ -2024,10 +2016,10 @@
         <v>10000304</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>281</v>
@@ -2038,10 +2030,10 @@
         <v>10000343</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>502</v>
@@ -2052,10 +2044,10 @@
         <v>10000418</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>621</v>
@@ -2066,10 +2058,10 @@
         <v>10000615</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>765</v>
@@ -2080,10 +2072,10 @@
         <v>10000788</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>709</v>
@@ -2094,10 +2086,10 @@
         <v>10000807</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>485</v>
@@ -2108,10 +2100,10 @@
         <v>10001154</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>158</v>
@@ -2122,10 +2114,10 @@
         <v>10001215</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>485</v>
@@ -2136,10 +2128,10 @@
         <v>10001465</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>322</v>
@@ -2150,10 +2142,10 @@
         <v>10001469</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>51</v>
@@ -2164,10 +2156,10 @@
         <v>10001473</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>152</v>
@@ -2178,10 +2170,10 @@
         <v>10001509</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>634</v>
@@ -2192,10 +2184,10 @@
         <v>10001597</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>299</v>
@@ -2206,10 +2198,10 @@
         <v>10001606</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>466</v>
@@ -2220,10 +2212,10 @@
         <v>10001622</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>971</v>
@@ -2234,10 +2226,10 @@
         <v>10001772</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>434</v>
@@ -2248,10 +2240,10 @@
         <v>10001979</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>228</v>
@@ -2262,10 +2254,10 @@
         <v>10001998</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>142</v>
@@ -2276,10 +2268,10 @@
         <v>10002012</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>789</v>
@@ -2290,10 +2282,10 @@
         <v>10002310</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>924</v>
@@ -2304,10 +2296,10 @@
         <v>10002475</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>206</v>
@@ -2318,10 +2310,10 @@
         <v>10002563</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>832</v>
@@ -2332,10 +2324,10 @@
         <v>10002647</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>712</v>
@@ -2346,10 +2338,10 @@
         <v>10002713</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>781</v>
@@ -2360,10 +2352,10 @@
         <v>10002885</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D28">
         <v>977</v>
@@ -2374,10 +2366,10 @@
         <v>10002968</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>95</v>
@@ -2388,10 +2380,10 @@
         <v>10003012</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>315</v>
@@ -2402,10 +2394,10 @@
         <v>10003061</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>433</v>
@@ -2416,10 +2408,10 @@
         <v>10003072</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D32">
         <v>495</v>
@@ -2430,10 +2422,10 @@
         <v>10003623</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>24</v>
@@ -2444,10 +2436,10 @@
         <v>10003715</v>
       </c>
       <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
         <v>105</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
       </c>
       <c r="D34">
         <v>263</v>
@@ -2461,7 +2453,7 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>810</v>
@@ -2475,7 +2467,7 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D36">
         <v>637</v>
@@ -2489,7 +2481,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D37">
         <v>804</v>
@@ -2500,10 +2492,10 @@
         <v>10004086</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>933</v>
@@ -2514,10 +2506,10 @@
         <v>10004495</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>595</v>
@@ -2528,10 +2520,10 @@
         <v>10004667</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D40">
         <v>557</v>

--- a/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\CMPG-323-Project4---38630834\CMPG 323 Project 4 38630834\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD3268-9269-49AE-8FB5-19D1E986FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC483E61-2053-4BFC-851A-6133E73FF099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="31875" yWindow="4185" windowWidth="21600" windowHeight="11295" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Customers" sheetId="1" r:id="rId1"/>
     <x:sheet name="Order Details" sheetId="2" r:id="rId2"/>
     <x:sheet name="Orders" sheetId="3" r:id="rId3"/>
     <x:sheet name="Products" sheetId="4" r:id="rId4"/>
+    <x:sheet name="OrderDetails" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <x:si>
     <x:t>CustomerId</x:t>
   </x:si>
@@ -181,9 +182,6 @@
   </x:si>
   <x:si>
     <x:t>Mount Vernon New York United States 10550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>False</x:t>
   </x:si>
   <x:si>
     <x:t>Laurel Maryland United States 20707</x:t>
@@ -755,7 +753,7 @@
   <x:dimension ref="A1:F14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="F2" sqref="F2 F2:F14"/>
+      <x:selection activeCell="F2" sqref="F2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1792,7 @@
   <x:dimension ref="A1:E15"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B2" sqref="B2"/>
+      <x:selection activeCell="E2" sqref="E2 E2:E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1852,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,10 +1866,10 @@
         <x:v>19420</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,10 +1883,10 @@
         <x:v>20860</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,10 +1900,10 @@
         <x:v>20860</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,7 +1917,10 @@
         <x:v>15325</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1933,7 +1934,10 @@
         <x:v>18085</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,7 +1951,10 @@
         <x:v>17950</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,7 +1968,10 @@
         <x:v>12280</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1975,7 +1985,10 @@
         <x:v>16240</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,7 +2002,10 @@
         <x:v>17425</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2003,7 +2019,10 @@
         <x:v>20320</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,7 +2036,10 @@
         <x:v>21085</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2031,7 +2053,10 @@
         <x:v>12640</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2051,7 +2076,7 @@
   <x:dimension ref="A1:E40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E1" sqref="E1"/>
+      <x:selection activeCell="E2" sqref="E2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,13 +2093,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
         <x:v>5</x:v>
@@ -2085,10 +2110,10 @@
         <x:v>10000215</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
         <x:v>950</x:v>
@@ -2102,13 +2127,16 @@
         <x:v>10000241</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>61</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,13 +2144,16 @@
         <x:v>10000304</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>281</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,13 +2161,16 @@
         <x:v>10000343</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>502</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2144,13 +2178,16 @@
         <x:v>10000418</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
         <x:v>621</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,13 +2195,16 @@
         <x:v>10000615</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>765</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,13 +2212,16 @@
         <x:v>10000788</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
         <x:v>709</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,13 +2229,16 @@
         <x:v>10000807</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
         <x:v>485</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2200,13 +2246,16 @@
         <x:v>10001154</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>158</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,13 +2263,16 @@
         <x:v>10001215</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>485</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,13 +2280,16 @@
         <x:v>10001465</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
         <x:v>322</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,13 +2297,16 @@
         <x:v>10001469</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>51</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2256,13 +2314,16 @@
         <x:v>10001473</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
         <x:v>152</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2270,13 +2331,16 @@
         <x:v>10001509</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>634</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2284,13 +2348,16 @@
         <x:v>10001597</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>299</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,13 +2365,16 @@
         <x:v>10001606</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>466</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,13 +2382,16 @@
         <x:v>10001622</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>971</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,13 +2399,16 @@
         <x:v>10001772</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>434</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,13 +2416,16 @@
         <x:v>10001979</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
         <x:v>228</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2354,13 +2433,16 @@
         <x:v>10001998</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>142</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,13 +2450,16 @@
         <x:v>10002012</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>789</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,13 +2467,16 @@
         <x:v>10002310</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>924</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,13 +2484,16 @@
         <x:v>10002475</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>206</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,13 +2501,16 @@
         <x:v>10002563</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>832</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2424,13 +2518,16 @@
         <x:v>10002647</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>712</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,13 +2535,16 @@
         <x:v>10002713</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>781</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,13 +2552,16 @@
         <x:v>10002885</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
         <x:v>977</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,13 +2569,16 @@
         <x:v>10002968</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
         <x:v>95</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,13 +2586,16 @@
         <x:v>10003012</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>315</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,13 +2603,16 @@
         <x:v>10003061</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>433</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2508,13 +2620,16 @@
         <x:v>10003072</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>495</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,13 +2637,16 @@
         <x:v>10003623</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>24</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,13 +2654,16 @@
         <x:v>10003715</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
         <x:v>263</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2550,13 +2671,16 @@
         <x:v>10003833</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>810</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2564,13 +2688,16 @@
         <x:v>10003846</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>637</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,13 +2705,16 @@
         <x:v>10004015</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>804</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2592,13 +2722,16 @@
         <x:v>10004086</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>933</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,13 +2739,16 @@
         <x:v>10004495</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>595</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,13 +2756,16 @@
         <x:v>10004667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>557</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2636,4 +2775,29 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="2" spans="1:6">
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\CMPG-323-Project4---38630834\CMPG 323 Project 4 38630834\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC483E61-2053-4BFC-851A-6133E73FF099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C30F444-9344-4607-B473-DF3468C32C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="31875" yWindow="4185" windowWidth="21600" windowHeight="11295" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="6045" yWindow="2970" windowWidth="21600" windowHeight="11295" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Customers" sheetId="1" r:id="rId1"/>
     <x:sheet name="Order Details" sheetId="2" r:id="rId2"/>
     <x:sheet name="Orders" sheetId="3" r:id="rId3"/>
     <x:sheet name="Products" sheetId="4" r:id="rId4"/>
-    <x:sheet name="OrderDetails" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -752,8 +751,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F14"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="F2" sqref="F2"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F2" sqref="F2 F2:F14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,8 +1790,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E15"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 E2:E6"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2 E2:E15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2075,7 @@
   <x:dimension ref="A1:E40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2"/>
+      <x:selection activeCell="E2" sqref="E2 E2:E32"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,9 +2644,6 @@
       <x:c r="D33" s="0" t="n">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="n">
@@ -2662,9 +2658,6 @@
       <x:c r="D34" s="0" t="n">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="n">
@@ -2679,9 +2672,6 @@
       <x:c r="D35" s="0" t="n">
         <x:v>810</x:v>
       </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="n">
@@ -2696,9 +2686,6 @@
       <x:c r="D36" s="0" t="n">
         <x:v>637</x:v>
       </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="n">
@@ -2713,9 +2700,6 @@
       <x:c r="D37" s="0" t="n">
         <x:v>804</x:v>
       </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="n">
@@ -2730,9 +2714,6 @@
       <x:c r="D38" s="0" t="n">
         <x:v>933</x:v>
       </x:c>
-      <x:c r="E38" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="n">
@@ -2747,9 +2728,6 @@
       <x:c r="D39" s="0" t="n">
         <x:v>595</x:v>
       </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="n">
@@ -2763,9 +2741,6 @@
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>557</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2775,29 +2750,4 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="2" spans="1:6">
-      <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
 </file>
--- a/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG 323 Project 4 38630834/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\CMPG-323-Project4---38630834\CMPG 323 Project 4 38630834\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1275B69-CE66-4B1E-9E75-B4789A40D913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8ACF65-2CED-4FB5-88BA-AB561865D889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="2970" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
   <si>
     <t>CustomerId</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>4 Steve Biko Street</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Mount Vernon New York United States 10550</t>
@@ -738,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2 F2:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1804,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1821,10 +1818,10 @@
         <v>13735</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,10 +1835,10 @@
         <v>19420</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1855,7 +1852,7 @@
         <v>20860</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1872,7 +1869,7 @@
         <v>20860</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1889,7 +1886,7 @@
         <v>15325</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1906,7 +1903,7 @@
         <v>18085</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1923,7 +1920,7 @@
         <v>17950</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1940,7 +1937,7 @@
         <v>12280</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1957,7 +1954,7 @@
         <v>16240</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1974,7 +1971,7 @@
         <v>17425</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1991,7 +1988,7 @@
         <v>20320</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -2008,7 +2005,7 @@
         <v>21085</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -2025,7 +2022,7 @@
         <v>12640</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -2040,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E40" sqref="E2:E40"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40 E2:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,13 +2055,13 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -2075,13 +2072,16 @@
         <v>10000215</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
       </c>
       <c r="D2">
         <v>950</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,13 +2089,16 @@
         <v>10000241</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
       <c r="D3">
         <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2103,13 +2106,16 @@
         <v>10000304</v>
       </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
       </c>
       <c r="D4">
         <v>281</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,13 +2123,16 @@
         <v>10000343</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
       </c>
       <c r="D5">
         <v>502</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,13 +2140,16 @@
         <v>10000418</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>621</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,13 +2157,16 @@
         <v>10000615</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
       </c>
       <c r="D7">
         <v>765</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,13 +2174,16 @@
         <v>10000788</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>709</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,13 +2191,16 @@
         <v>10000807</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>485</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,13 +2208,16 @@
         <v>10001154</v>
       </c>
       <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
       </c>
       <c r="D10">
         <v>158</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,13 +2225,16 @@
         <v>10001215</v>
       </c>
       <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
       </c>
       <c r="D11">
         <v>485</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,13 +2242,16 @@
         <v>10001465</v>
       </c>
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
       </c>
       <c r="D12">
         <v>322</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2229,13 +2259,16 @@
         <v>10001469</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,13 +2276,16 @@
         <v>10001473</v>
       </c>
       <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
       </c>
       <c r="D14">
         <v>152</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,13 +2293,16 @@
         <v>10001509</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
       </c>
       <c r="D15">
         <v>634</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2271,349 +2310,424 @@
         <v>10001597</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>299</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001606</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>466</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001622</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>971</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10001772</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001979</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10001998</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10002012</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22">
         <v>789</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10002310</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>924</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10002475</v>
       </c>
       <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
         <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
       </c>
       <c r="D24">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10002563</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>832</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10002647</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10002713</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>781</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10002885</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>977</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10002968</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10003012</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10003061</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31">
         <v>433</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10003072</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <v>495</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10003623</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10003715</v>
       </c>
       <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
         <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
       </c>
       <c r="D34">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10003833</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>810</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10003846</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>637</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10004015</v>
       </c>
       <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" t="s">
-        <v>111</v>
       </c>
       <c r="D37">
         <v>804</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10004086</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>933</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10004495</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10004667</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <v>557</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
